--- a/4.Golden Planet/골든플래닛 실습 조 일일 학습플래너.xlsx
+++ b/4.Golden Planet/골든플래닛 실습 조 일일 학습플래너.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>골든플래닛 실습 조 일일 학습플래너</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>비고</t>
+  </si>
+  <si>
+    <t>공통 특이사항</t>
   </si>
   <si>
     <t>월</t>
@@ -65,7 +68,7 @@
     <t>이동렬</t>
   </si>
   <si>
-    <t>머신러닝 공부. logistic regression, SVM 공부.(유투브 강의.)</t>
+    <t>머신러닝 공부. logistic regression, SVM</t>
   </si>
   <si>
     <t>이수안 컴퓨터(유투브 강의)</t>
@@ -80,7 +83,8 @@
     <t>점프투 파이썬 예제 빼고 정독.(파이썬 기초 완)</t>
   </si>
   <si>
-    <t>Python(for문, if문, lambda함수, list comprehension, slicing 등)을 통해 원하는 형태의 데이터셋을 만들 수 있음</t>
+    <t>Python(for문, if문, lambda함수, list comprehension, slicing 등)을 통해 원하는 형태의 데이터셋을 만들 수 있음.
+단, 자료구조형 및 기본 데이터 핸들링은 잊어버리지 않도록 꾸준히 복습 필요.(한번보고 끝낼거 아님)</t>
   </si>
   <si>
     <t>python 데이터 분석 실무 톺아보기. scikit-learn 기초개념정리</t>
@@ -90,6 +94,43 @@
   </si>
   <si>
     <t>수</t>
+  </si>
+  <si>
+    <t>면접 대비 및 줌 비대면 면접 진행</t>
+  </si>
+  <si>
+    <t>주식회사 랩큐</t>
+  </si>
+  <si>
+    <t>오후) 골든플래닛 이환옥 멘토님 멘토링 진행. + 멘토링 자료(서울 작년, 재작년 최종프로젝트 결과물 보기.)</t>
+  </si>
+  <si>
+    <t>정보처리기사 공부</t>
+  </si>
+  <si>
+    <t>1과목</t>
+  </si>
+  <si>
+    <t>목</t>
+  </si>
+  <si>
+    <t>기초통계(one-way ANOVA 이론 공부, t-test 전체 복습.)</t>
+  </si>
+  <si>
+    <t>오전) 골든플래닛 멘토링 자료(서울반 이전 프로젝트 검토하고, 1등 선정 후 프로젝트 분석.)
+오후) 바론시스템 멘토링 청강(오티)</t>
+  </si>
+  <si>
+    <t>python 기초 및 자료구조 학습</t>
+  </si>
+  <si>
+    <t>Python for Data Analysis(오소리책)</t>
+  </si>
+  <si>
+    <t>python linearRegression 학습</t>
+  </si>
+  <si>
+    <t>정보처리기사공부(1단원 끝), 바론시스템 미팅, 포폴(깃허브) 작성</t>
   </si>
 </sst>
 </file>
@@ -128,7 +169,7 @@
       <name val="&quot;Malgun Gothic&quot;"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,18 +184,76 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF6FA8DC"/>
+        <bgColor rgb="FF6FA8DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -165,37 +264,72 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,10 +547,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="4.71"/>
+    <col customWidth="1" min="2" max="2" width="7.0"/>
     <col customWidth="1" min="3" max="3" width="12.57"/>
     <col customWidth="1" min="4" max="4" width="64.0"/>
-    <col customWidth="1" min="5" max="5" width="96.14"/>
+    <col customWidth="1" min="5" max="5" width="65.86"/>
+    <col customWidth="1" min="6" max="6" width="32.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,354 +591,822 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>44396.0</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5">
+        <v>44397.0</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8" t="s">
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="D12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4">
-        <v>44397.0</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="D14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6" t="s">
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="19">
+        <v>44398.0</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="24">
+        <v>44399.0</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4">
-        <v>44398.0</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="6" t="s">
-        <v>7</v>
+      <c r="F19" s="20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="22"/>
     </row>
     <row r="21">
-      <c r="A21" s="4"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A21" s="9"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="22"/>
     </row>
     <row r="22">
-      <c r="A22" s="4"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23">
-      <c r="A23" s="4"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24">
-      <c r="A24" s="4"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26">
-      <c r="A26" s="4"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27">
-      <c r="A27" s="4"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28">
-      <c r="A28" s="4"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29">
-      <c r="A29" s="4"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A29" s="9"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30">
-      <c r="A30" s="4"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="12"/>
     </row>
     <row r="33">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37">
-      <c r="A37" s="4"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A37" s="9"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="12"/>
     </row>
     <row r="41">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="12"/>
     </row>
     <row r="42">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="8"/>
     </row>
     <row r="44">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45">
-      <c r="A45" s="4"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A45" s="9"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="12"/>
     </row>
     <row r="46">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47">
-      <c r="A47" s="13"/>
-      <c r="B47" s="5"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="21"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="21"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="21"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="21"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="21"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="21"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="F19:F22"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
